--- a/data/pca/factorExposure/factorExposure_2010-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-24.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01487726938767943</v>
+        <v>-0.01636669259203422</v>
       </c>
       <c r="C2">
-        <v>0.003788112577552499</v>
+        <v>-0.0007888611355678729</v>
       </c>
       <c r="D2">
-        <v>0.01193415059557879</v>
+        <v>0.007851727499347207</v>
       </c>
       <c r="E2">
-        <v>-0.008903451511157925</v>
+        <v>-0.002302510849216549</v>
       </c>
       <c r="F2">
-        <v>-0.03086101203564184</v>
+        <v>-0.01319174225080694</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1221156442875072</v>
+        <v>-0.09514769694552368</v>
       </c>
       <c r="C4">
-        <v>0.1045743924034374</v>
+        <v>-0.01776025512726746</v>
       </c>
       <c r="D4">
-        <v>-0.004477751808157711</v>
+        <v>0.08099217014311608</v>
       </c>
       <c r="E4">
-        <v>0.1651685245673015</v>
+        <v>0.02743123879307846</v>
       </c>
       <c r="F4">
-        <v>-0.05340259299980836</v>
+        <v>0.04052509224342473</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1315476250930834</v>
+        <v>-0.1519343751628379</v>
       </c>
       <c r="C6">
-        <v>0.06663383990952437</v>
+        <v>-0.02440828914049631</v>
       </c>
       <c r="D6">
-        <v>0.001348641965424136</v>
+        <v>-0.02305202267022371</v>
       </c>
       <c r="E6">
-        <v>0.06418736741221727</v>
+        <v>0.0142690655098777</v>
       </c>
       <c r="F6">
-        <v>-0.0009106391548500274</v>
+        <v>0.03980269476583791</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07522407246443991</v>
+        <v>-0.0622427939150379</v>
       </c>
       <c r="C7">
-        <v>0.080217300074968</v>
+        <v>-0.000290600024413535</v>
       </c>
       <c r="D7">
-        <v>0.01115398459494265</v>
+        <v>0.05192198586580851</v>
       </c>
       <c r="E7">
-        <v>0.01385782039591402</v>
+        <v>0.01313717270015314</v>
       </c>
       <c r="F7">
-        <v>0.006961714471670896</v>
+        <v>0.05803338650299917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04010443719134942</v>
+        <v>-0.05967905923404619</v>
       </c>
       <c r="C8">
-        <v>0.01675423004525389</v>
+        <v>0.01247528666377435</v>
       </c>
       <c r="D8">
-        <v>0.007758489689036653</v>
+        <v>0.02794820215222698</v>
       </c>
       <c r="E8">
-        <v>0.09573047510421644</v>
+        <v>0.01147629681121511</v>
       </c>
       <c r="F8">
-        <v>-0.05868545353755692</v>
+        <v>-0.02183599264207845</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08664506971529462</v>
+        <v>-0.07244239982000114</v>
       </c>
       <c r="C9">
-        <v>0.07973915431879257</v>
+        <v>-0.01424435672952966</v>
       </c>
       <c r="D9">
-        <v>-0.02288216017293113</v>
+        <v>0.07908848354457673</v>
       </c>
       <c r="E9">
-        <v>0.1337347034646433</v>
+        <v>0.02078982976343311</v>
       </c>
       <c r="F9">
-        <v>-0.04564878238794046</v>
+        <v>0.06179962636470205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.135729707094962</v>
+        <v>-0.09179028168808662</v>
       </c>
       <c r="C10">
-        <v>-0.1784456595287215</v>
+        <v>-0.01367519295723692</v>
       </c>
       <c r="D10">
-        <v>0.001935100603325827</v>
+        <v>-0.1735302649812913</v>
       </c>
       <c r="E10">
-        <v>-0.02529728457012284</v>
+        <v>-0.03531147686616362</v>
       </c>
       <c r="F10">
-        <v>0.02558558834971859</v>
+        <v>-0.05001497652848485</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06653055782120519</v>
+        <v>-0.08841409971017208</v>
       </c>
       <c r="C11">
-        <v>0.06036860547020249</v>
+        <v>-0.01337377901162894</v>
       </c>
       <c r="D11">
-        <v>-0.04707480921256926</v>
+        <v>0.110232206336226</v>
       </c>
       <c r="E11">
-        <v>0.09143887746138389</v>
+        <v>0.0413692887431418</v>
       </c>
       <c r="F11">
-        <v>-0.03289280649165272</v>
+        <v>0.02701956832974715</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07263509314861918</v>
+        <v>-0.09389549550309313</v>
       </c>
       <c r="C12">
-        <v>0.06716782310645002</v>
+        <v>-0.01136574223992211</v>
       </c>
       <c r="D12">
-        <v>-0.05478355968790351</v>
+        <v>0.1168100144273973</v>
       </c>
       <c r="E12">
-        <v>0.1105332816393781</v>
+        <v>0.03903009559848371</v>
       </c>
       <c r="F12">
-        <v>0.006340800187361638</v>
+        <v>0.02854385166421682</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04221472233713915</v>
+        <v>-0.04454049918152996</v>
       </c>
       <c r="C13">
-        <v>0.03923771273005855</v>
+        <v>-0.004946876927479115</v>
       </c>
       <c r="D13">
-        <v>0.02437259590880651</v>
+        <v>0.04386175656347156</v>
       </c>
       <c r="E13">
-        <v>0.04156683393814224</v>
+        <v>-0.01425320839687801</v>
       </c>
       <c r="F13">
-        <v>-0.02102262659573846</v>
+        <v>0.0207203289833992</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03935136921822321</v>
+        <v>-0.02195061342155873</v>
       </c>
       <c r="C14">
-        <v>0.03725647788022187</v>
+        <v>-0.01517248879714737</v>
       </c>
       <c r="D14">
-        <v>-0.01189617940130981</v>
+        <v>0.02933305496336655</v>
       </c>
       <c r="E14">
-        <v>0.06149016759745455</v>
+        <v>0.01480394068047769</v>
       </c>
       <c r="F14">
-        <v>-0.02301198822243342</v>
+        <v>0.02682847720695617</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02371644072124385</v>
+        <v>-0.03256412791873375</v>
       </c>
       <c r="C15">
-        <v>0.0162154623591855</v>
+        <v>-0.006171732780851003</v>
       </c>
       <c r="D15">
-        <v>0.07012132913574465</v>
+        <v>0.04125465273973367</v>
       </c>
       <c r="E15">
-        <v>0.01424834390746095</v>
+        <v>0.007047754619106587</v>
       </c>
       <c r="F15">
-        <v>-0.03704272414041272</v>
+        <v>0.03446414289045789</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07896612672750968</v>
+        <v>-0.0755879457199756</v>
       </c>
       <c r="C16">
-        <v>0.07578798795864641</v>
+        <v>-0.005154700278642474</v>
       </c>
       <c r="D16">
-        <v>-0.04286542171020941</v>
+        <v>0.1147083538737285</v>
       </c>
       <c r="E16">
-        <v>0.09312011934732037</v>
+        <v>0.0565902975059589</v>
       </c>
       <c r="F16">
-        <v>-0.001767466343724604</v>
+        <v>0.03550604466067189</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01757140341287216</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003943763027512995</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02139305163307568</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01035345686191362</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02582874559971198</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04718261704512629</v>
+        <v>-0.06126540187668114</v>
       </c>
       <c r="C20">
-        <v>0.02313009434575787</v>
+        <v>-0.002953555890143682</v>
       </c>
       <c r="D20">
-        <v>0.03167805155377933</v>
+        <v>0.06810433743546028</v>
       </c>
       <c r="E20">
-        <v>0.07902004456799835</v>
+        <v>0.0498948677650824</v>
       </c>
       <c r="F20">
-        <v>0.003119301663366755</v>
+        <v>0.03124238544802662</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03617533430851088</v>
+        <v>-0.03803541813727331</v>
       </c>
       <c r="C21">
-        <v>0.02570536944136026</v>
+        <v>-0.008050955366294445</v>
       </c>
       <c r="D21">
-        <v>-0.02496611596538507</v>
+        <v>0.03401042107613603</v>
       </c>
       <c r="E21">
-        <v>0.06757936762920137</v>
+        <v>-0.01269881251450005</v>
       </c>
       <c r="F21">
-        <v>-0.02149273159631162</v>
+        <v>-0.01830955413093078</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05633951859862477</v>
+        <v>-0.04286701525568241</v>
       </c>
       <c r="C22">
-        <v>-0.002612180129090077</v>
+        <v>-0.001070237792171396</v>
       </c>
       <c r="D22">
-        <v>0.6486533104069674</v>
+        <v>-0.0006005337364759744</v>
       </c>
       <c r="E22">
-        <v>0.0262801971194109</v>
+        <v>0.03176603762069831</v>
       </c>
       <c r="F22">
-        <v>0.1140311170422213</v>
+        <v>-0.02344492655730112</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05718340580082602</v>
+        <v>-0.04293983313818595</v>
       </c>
       <c r="C23">
-        <v>-0.0009971014420685487</v>
+        <v>-0.001100350272879495</v>
       </c>
       <c r="D23">
-        <v>0.650994753329534</v>
+        <v>-0.0003917462555801757</v>
       </c>
       <c r="E23">
-        <v>0.03178590136561429</v>
+        <v>0.03216803251272224</v>
       </c>
       <c r="F23">
-        <v>0.113473356276442</v>
+        <v>-0.0228662036282463</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07721074872609041</v>
+        <v>-0.08196213414934077</v>
       </c>
       <c r="C24">
-        <v>0.07404688182557935</v>
+        <v>-0.00537849485191415</v>
       </c>
       <c r="D24">
-        <v>-0.03541396702975212</v>
+        <v>0.1151801372592767</v>
       </c>
       <c r="E24">
-        <v>0.09641272087525839</v>
+        <v>0.0448697865196948</v>
       </c>
       <c r="F24">
-        <v>-0.009839684341202784</v>
+        <v>0.02768952816062419</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07659726316967641</v>
+        <v>-0.08614767598598808</v>
       </c>
       <c r="C25">
-        <v>0.05642914185520575</v>
+        <v>-0.007326646302765791</v>
       </c>
       <c r="D25">
-        <v>-0.05978103558111999</v>
+        <v>0.1005905085119231</v>
       </c>
       <c r="E25">
-        <v>0.09993019124323546</v>
+        <v>0.02677462445872787</v>
       </c>
       <c r="F25">
-        <v>-0.01076885296729809</v>
+        <v>0.03706660529843876</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0417461613943934</v>
+        <v>-0.05674692605654274</v>
       </c>
       <c r="C26">
-        <v>0.01126812675323841</v>
+        <v>-0.01567880645076493</v>
       </c>
       <c r="D26">
-        <v>0.01458099882156656</v>
+        <v>0.03164145326888806</v>
       </c>
       <c r="E26">
-        <v>0.07753174879567931</v>
+        <v>0.02280407388637983</v>
       </c>
       <c r="F26">
-        <v>0.0484311491414527</v>
+        <v>-0.0007135447957267118</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1567281646462575</v>
+        <v>-0.1381771095856043</v>
       </c>
       <c r="C28">
-        <v>-0.270013950789932</v>
+        <v>-0.01065429754177581</v>
       </c>
       <c r="D28">
-        <v>-0.01872142560054854</v>
+        <v>-0.2732719522231701</v>
       </c>
       <c r="E28">
-        <v>0.02969997750652971</v>
+        <v>-0.06651613657263331</v>
       </c>
       <c r="F28">
-        <v>-0.005042299950921744</v>
+        <v>0.04414068769698729</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03865934118270644</v>
+        <v>-0.02713103333675906</v>
       </c>
       <c r="C29">
-        <v>0.03167960224216377</v>
+        <v>-0.009356159779455524</v>
       </c>
       <c r="D29">
-        <v>-0.01600290402422094</v>
+        <v>0.02816551129460766</v>
       </c>
       <c r="E29">
-        <v>0.06257920768673118</v>
+        <v>0.007477904066677364</v>
       </c>
       <c r="F29">
-        <v>-0.01746540416672536</v>
+        <v>-0.006656965849964949</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07940428234993127</v>
+        <v>-0.06395160768752797</v>
       </c>
       <c r="C30">
-        <v>0.05939317403664725</v>
+        <v>-0.007190168785554945</v>
       </c>
       <c r="D30">
-        <v>-0.01972762685819035</v>
+        <v>0.07595085528797496</v>
       </c>
       <c r="E30">
-        <v>0.2567280509364404</v>
+        <v>0.02024534048249368</v>
       </c>
       <c r="F30">
-        <v>0.1107452264470748</v>
+        <v>0.1223481647186558</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02694882267672535</v>
+        <v>-0.04849525450133826</v>
       </c>
       <c r="C31">
-        <v>0.05713787481724503</v>
+        <v>-0.01534411667472672</v>
       </c>
       <c r="D31">
-        <v>0.003413340884172044</v>
+        <v>0.02856694120031061</v>
       </c>
       <c r="E31">
-        <v>0.04092058943631736</v>
+        <v>0.02590343066192488</v>
       </c>
       <c r="F31">
-        <v>-0.01807739145276811</v>
+        <v>-0.002551743464653707</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05034303106979456</v>
+        <v>-0.04862404005901334</v>
       </c>
       <c r="C32">
-        <v>0.01460582973979181</v>
+        <v>-0.00107095519245338</v>
       </c>
       <c r="D32">
-        <v>-0.04638771712059173</v>
+        <v>0.02640038860461745</v>
       </c>
       <c r="E32">
-        <v>0.02889547494761983</v>
+        <v>0.0251411044715791</v>
       </c>
       <c r="F32">
-        <v>-0.09827510222985159</v>
+        <v>0.005440059230275712</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09780028010676764</v>
+        <v>-0.0919669274026914</v>
       </c>
       <c r="C33">
-        <v>0.07955918444884688</v>
+        <v>-0.01057224268037011</v>
       </c>
       <c r="D33">
-        <v>-0.02109666121052472</v>
+        <v>0.09015904167173872</v>
       </c>
       <c r="E33">
-        <v>0.06691098178075167</v>
+        <v>0.04348038385849982</v>
       </c>
       <c r="F33">
-        <v>0.008762472582937206</v>
+        <v>0.04285392281491393</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06680706582893783</v>
+        <v>-0.06900300301246148</v>
       </c>
       <c r="C34">
-        <v>0.05280158455245234</v>
+        <v>-0.01323062428358996</v>
       </c>
       <c r="D34">
-        <v>-0.04593890738728269</v>
+        <v>0.0943614223834007</v>
       </c>
       <c r="E34">
-        <v>0.08836250507086757</v>
+        <v>0.02755080054416236</v>
       </c>
       <c r="F34">
-        <v>-0.01809580875026246</v>
+        <v>0.05251905818589795</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01810995111976656</v>
+        <v>-0.02440111675952773</v>
       </c>
       <c r="C35">
-        <v>0.01671177866091401</v>
+        <v>-0.002728442514760263</v>
       </c>
       <c r="D35">
-        <v>-0.0002467418583785842</v>
+        <v>0.01033076887083108</v>
       </c>
       <c r="E35">
-        <v>0.03399206290701194</v>
+        <v>0.01141260898749</v>
       </c>
       <c r="F35">
-        <v>-0.004812263405589244</v>
+        <v>0.01176324991716235</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0261519089644538</v>
+        <v>-0.02601511896063329</v>
       </c>
       <c r="C36">
-        <v>0.02003930836577807</v>
+        <v>-0.007003743694998278</v>
       </c>
       <c r="D36">
-        <v>0.01332274368919143</v>
+        <v>0.03811545826533163</v>
       </c>
       <c r="E36">
-        <v>0.08643276047238918</v>
+        <v>0.01594792969052222</v>
       </c>
       <c r="F36">
-        <v>-3.30582641796973e-06</v>
+        <v>0.01375093966496811</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02411298518225002</v>
+        <v>-0.003019979812465071</v>
       </c>
       <c r="C38">
-        <v>0.05008832812571153</v>
+        <v>-0.0005631546103342909</v>
       </c>
       <c r="D38">
-        <v>0.02884336403613226</v>
+        <v>0.003218493012210543</v>
       </c>
       <c r="E38">
-        <v>-0.09968621512278027</v>
+        <v>0.00422375404534598</v>
       </c>
       <c r="F38">
-        <v>0.0877859939436294</v>
+        <v>-0.003246725659115835</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09779426009770628</v>
+        <v>-0.111737537847414</v>
       </c>
       <c r="C39">
-        <v>0.08885762066942013</v>
+        <v>-0.01925105357950292</v>
       </c>
       <c r="D39">
-        <v>-0.1318075857292266</v>
+        <v>0.1469846863850774</v>
       </c>
       <c r="E39">
-        <v>0.1507443982391014</v>
+        <v>0.0494960972999213</v>
       </c>
       <c r="F39">
-        <v>0.1013484570336978</v>
+        <v>0.03905001284899004</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02902729932855463</v>
+        <v>-0.03741080856970913</v>
       </c>
       <c r="C40">
-        <v>0.05865809611664406</v>
+        <v>-0.007685540835486108</v>
       </c>
       <c r="D40">
-        <v>0.02537159190111172</v>
+        <v>0.02860410799453572</v>
       </c>
       <c r="E40">
-        <v>0.05014058497551878</v>
+        <v>0.001338272855416278</v>
       </c>
       <c r="F40">
-        <v>-0.07501945037873592</v>
+        <v>-0.01725437495115572</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03365392972017822</v>
+        <v>-0.02630561963176338</v>
       </c>
       <c r="C41">
-        <v>0.02491195068860775</v>
+        <v>-0.006859037830716465</v>
       </c>
       <c r="D41">
-        <v>-0.01990855526927134</v>
+        <v>0.01120570436715206</v>
       </c>
       <c r="E41">
-        <v>0.002406104862837577</v>
+        <v>0.01105051495107571</v>
       </c>
       <c r="F41">
-        <v>0.02387577720513674</v>
+        <v>-0.01244833420318789</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04657044802305757</v>
+        <v>-0.04316588263228854</v>
       </c>
       <c r="C43">
-        <v>0.04700132647443995</v>
+        <v>-0.007308655256570346</v>
       </c>
       <c r="D43">
-        <v>0.01003238752526229</v>
+        <v>0.02196332288723063</v>
       </c>
       <c r="E43">
-        <v>0.01864152817583952</v>
+        <v>0.02569086671538703</v>
       </c>
       <c r="F43">
-        <v>0.05040101016172641</v>
+        <v>-0.01158797417926939</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09730642250857185</v>
+        <v>-0.07342470234822669</v>
       </c>
       <c r="C44">
-        <v>0.08638506200420379</v>
+        <v>-0.02333066468829205</v>
       </c>
       <c r="D44">
-        <v>0.07340627817023991</v>
+        <v>0.09962481506850922</v>
       </c>
       <c r="E44">
-        <v>0.1052142282842566</v>
+        <v>0.06545884061525128</v>
       </c>
       <c r="F44">
-        <v>-0.04853043764331275</v>
+        <v>0.1794221128618889</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03754144621265814</v>
+        <v>-0.02393181496827755</v>
       </c>
       <c r="C46">
-        <v>0.03861569962856371</v>
+        <v>-0.004351153307293118</v>
       </c>
       <c r="D46">
-        <v>0.04320958689964843</v>
+        <v>0.01240009042028221</v>
       </c>
       <c r="E46">
-        <v>0.0403801870714586</v>
+        <v>0.02170361778712853</v>
       </c>
       <c r="F46">
-        <v>-0.04149668808280251</v>
+        <v>-0.002118532760415787</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05478549794087349</v>
+        <v>-0.05304940184073398</v>
       </c>
       <c r="C47">
-        <v>0.04779161417583609</v>
+        <v>-0.003587131687855952</v>
       </c>
       <c r="D47">
-        <v>-0.001154352531658888</v>
+        <v>0.01267134146847297</v>
       </c>
       <c r="E47">
-        <v>0.02403410142081188</v>
+        <v>0.02274524249954849</v>
       </c>
       <c r="F47">
-        <v>0.01817685814301585</v>
+        <v>-0.04712902916721295</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04525624715927785</v>
+        <v>-0.04823271479538036</v>
       </c>
       <c r="C48">
-        <v>0.01541943704751946</v>
+        <v>-0.003477966870027424</v>
       </c>
       <c r="D48">
-        <v>-0.01368202341501607</v>
+        <v>0.04463660962239252</v>
       </c>
       <c r="E48">
-        <v>0.09002745417955649</v>
+        <v>-0.009374933168007414</v>
       </c>
       <c r="F48">
-        <v>-0.04379459503398955</v>
+        <v>0.01849709885716166</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2343714870990115</v>
+        <v>-0.2058991506170907</v>
       </c>
       <c r="C49">
-        <v>0.04471632640084969</v>
+        <v>-0.0166129673154221</v>
       </c>
       <c r="D49">
-        <v>-0.0244700330049075</v>
+        <v>-0.006399450030905665</v>
       </c>
       <c r="E49">
-        <v>-0.3127099786292508</v>
+        <v>0.04350504459062746</v>
       </c>
       <c r="F49">
-        <v>0.03233620561769591</v>
+        <v>0.03538798084409275</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03621271670001933</v>
+        <v>-0.04879817778455325</v>
       </c>
       <c r="C50">
-        <v>0.05058766774936048</v>
+        <v>-0.01145941053642882</v>
       </c>
       <c r="D50">
-        <v>-0.01232702848849872</v>
+        <v>0.02664174067243654</v>
       </c>
       <c r="E50">
-        <v>0.06195064411202671</v>
+        <v>0.02838872254714462</v>
       </c>
       <c r="F50">
-        <v>0.01778404417571109</v>
+        <v>0.0066139702567036</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02832120620842138</v>
+        <v>-0.003299369600541304</v>
       </c>
       <c r="C51">
-        <v>0.002274260903337645</v>
+        <v>-0.0007826201186542568</v>
       </c>
       <c r="D51">
-        <v>-0.001079381444464841</v>
+        <v>-0.001484280161089615</v>
       </c>
       <c r="E51">
-        <v>-0.050541460617204</v>
+        <v>0.001426014361210057</v>
       </c>
       <c r="F51">
-        <v>-0.006167446080991975</v>
+        <v>0.00459107330983065</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03150685748730905</v>
+        <v>-0.1417172046704218</v>
       </c>
       <c r="C52">
-        <v>0.02100486524178004</v>
+        <v>-0.01271225045100724</v>
       </c>
       <c r="D52">
-        <v>-0.02153146917879005</v>
+        <v>0.04961030261922256</v>
       </c>
       <c r="E52">
-        <v>0.009772727177400915</v>
+        <v>0.01635488174207065</v>
       </c>
       <c r="F52">
-        <v>0.0223760752674175</v>
+        <v>0.0302702309250226</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1472573074319375</v>
+        <v>-0.1730471463231922</v>
       </c>
       <c r="C53">
-        <v>0.06290971610860625</v>
+        <v>-0.01544340439174394</v>
       </c>
       <c r="D53">
-        <v>0.02194437043962288</v>
+        <v>0.01588090419490375</v>
       </c>
       <c r="E53">
-        <v>-0.06363258083664813</v>
+        <v>0.03857112174707338</v>
       </c>
       <c r="F53">
-        <v>0.08483613867062684</v>
+        <v>0.05908985246443835</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06250897976652842</v>
+        <v>-0.02263082013727944</v>
       </c>
       <c r="C54">
-        <v>0.04319441253660702</v>
+        <v>-0.01315830354714359</v>
       </c>
       <c r="D54">
-        <v>0.0001205201973951095</v>
+        <v>0.0305654155878616</v>
       </c>
       <c r="E54">
-        <v>0.1360313028376362</v>
+        <v>0.01355561572395059</v>
       </c>
       <c r="F54">
-        <v>-0.05297216286698391</v>
+        <v>-0.0002322032954655657</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08321739828261533</v>
+        <v>-0.1145393475283615</v>
       </c>
       <c r="C55">
-        <v>0.06014581549444012</v>
+        <v>-0.01452890817439216</v>
       </c>
       <c r="D55">
-        <v>-0.03123630082169147</v>
+        <v>0.01513976296763184</v>
       </c>
       <c r="E55">
-        <v>-0.01257183754736455</v>
+        <v>0.0304003602833695</v>
       </c>
       <c r="F55">
-        <v>0.0223692288787586</v>
+        <v>0.04638910373675722</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1402155722386324</v>
+        <v>-0.1778910335278693</v>
       </c>
       <c r="C56">
-        <v>0.1001789103504836</v>
+        <v>-0.01299453240769015</v>
       </c>
       <c r="D56">
-        <v>-0.01378141856926449</v>
+        <v>0.01196259431771543</v>
       </c>
       <c r="E56">
-        <v>-0.03399879785334634</v>
+        <v>0.04297474481232297</v>
       </c>
       <c r="F56">
-        <v>0.05946392436268234</v>
+        <v>0.02856796394890465</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02934387315517582</v>
+        <v>-0.04705078782835734</v>
       </c>
       <c r="C58">
-        <v>0.03776734614640678</v>
+        <v>-0.003336903595516859</v>
       </c>
       <c r="D58">
-        <v>0.02943541958207569</v>
+        <v>0.06383914572563901</v>
       </c>
       <c r="E58">
-        <v>0.04188394897136445</v>
+        <v>0.01447865527108621</v>
       </c>
       <c r="F58">
-        <v>0.01643488318257283</v>
+        <v>-0.04255265453293149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2147191009242489</v>
+        <v>-0.1698622470646088</v>
       </c>
       <c r="C59">
-        <v>-0.2319265681521498</v>
+        <v>-0.01243661934799395</v>
       </c>
       <c r="D59">
-        <v>-0.05887212711408241</v>
+        <v>-0.2306677779629256</v>
       </c>
       <c r="E59">
-        <v>-0.01138047118048769</v>
+        <v>-0.04732892277981745</v>
       </c>
       <c r="F59">
-        <v>-0.04201185447842693</v>
+        <v>-0.03035305787547017</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.23277766115729</v>
+        <v>-0.2394538484609864</v>
       </c>
       <c r="C60">
-        <v>0.1413631289759263</v>
+        <v>0.004403591043151714</v>
       </c>
       <c r="D60">
-        <v>-0.07145819414604863</v>
+        <v>0.05169325510499898</v>
       </c>
       <c r="E60">
-        <v>-0.1126097130633233</v>
+        <v>0.01334873041676463</v>
       </c>
       <c r="F60">
-        <v>-0.006552651859146315</v>
+        <v>-0.04247367573667617</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09491646712171631</v>
+        <v>-0.08598196786894048</v>
       </c>
       <c r="C61">
-        <v>0.0724556785387775</v>
+        <v>-0.01496846203582188</v>
       </c>
       <c r="D61">
-        <v>-0.07669798600419189</v>
+        <v>0.1069686208843651</v>
       </c>
       <c r="E61">
-        <v>0.1397841755293886</v>
+        <v>0.03294172191309497</v>
       </c>
       <c r="F61">
-        <v>0.03062438396951965</v>
+        <v>0.02503252132303418</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1298149346113779</v>
+        <v>-0.1689641642641642</v>
       </c>
       <c r="C62">
-        <v>0.07137919462589787</v>
+        <v>-0.01695060331655571</v>
       </c>
       <c r="D62">
-        <v>0.008115772135195709</v>
+        <v>0.01307166488235001</v>
       </c>
       <c r="E62">
-        <v>-0.06635442295377875</v>
+        <v>0.03899142723657861</v>
       </c>
       <c r="F62">
-        <v>0.05757842560346965</v>
+        <v>0.01110501100501536</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04930847778397526</v>
+        <v>-0.04276364953785929</v>
       </c>
       <c r="C63">
-        <v>0.02259285258680216</v>
+        <v>-0.004370312154503658</v>
       </c>
       <c r="D63">
-        <v>-0.01285610769947001</v>
+        <v>0.04675315289273932</v>
       </c>
       <c r="E63">
-        <v>0.07844723523966678</v>
+        <v>0.01375456174302719</v>
       </c>
       <c r="F63">
-        <v>0.01110032036851121</v>
+        <v>0.01106196982994953</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09460511963263389</v>
+        <v>-0.1120457273510285</v>
       </c>
       <c r="C64">
-        <v>0.05567450831688157</v>
+        <v>-0.0119890382891247</v>
       </c>
       <c r="D64">
-        <v>-0.002351786177581921</v>
+        <v>0.03868831527364262</v>
       </c>
       <c r="E64">
-        <v>0.07084371845111566</v>
+        <v>0.01891805508391048</v>
       </c>
       <c r="F64">
-        <v>0.0274506005011379</v>
+        <v>0.01693559568505995</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1203265655866837</v>
+        <v>-0.1429013013889009</v>
       </c>
       <c r="C65">
-        <v>0.04051579450783697</v>
+        <v>-0.0306363363743521</v>
       </c>
       <c r="D65">
-        <v>-0.01335831164673521</v>
+        <v>-0.04686775407949979</v>
       </c>
       <c r="E65">
-        <v>0.08261389800487051</v>
+        <v>0.003293991020042152</v>
       </c>
       <c r="F65">
-        <v>0.03908073001319688</v>
+        <v>0.04233995207677424</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1089616886776435</v>
+        <v>-0.1338227113538339</v>
       </c>
       <c r="C66">
-        <v>0.1209399864023976</v>
+        <v>-0.01673644732796257</v>
       </c>
       <c r="D66">
-        <v>-0.1179592508987931</v>
+        <v>0.1341547878970585</v>
       </c>
       <c r="E66">
-        <v>0.1176496812248064</v>
+        <v>0.05890718852390714</v>
       </c>
       <c r="F66">
-        <v>0.1053333836295721</v>
+        <v>0.04445969694314093</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08075307743220671</v>
+        <v>-0.06547343590086149</v>
       </c>
       <c r="C67">
-        <v>0.05799103950231681</v>
+        <v>-0.004350318607511587</v>
       </c>
       <c r="D67">
-        <v>0.03672556074792284</v>
+        <v>0.05457556352231865</v>
       </c>
       <c r="E67">
-        <v>-0.09324660248272354</v>
+        <v>0.02069587854379034</v>
       </c>
       <c r="F67">
-        <v>0.1207687931100192</v>
+        <v>-0.04263663501204236</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1309261909675115</v>
+        <v>-0.1113255870858149</v>
       </c>
       <c r="C68">
-        <v>-0.2641580953580286</v>
+        <v>-0.02157389997503763</v>
       </c>
       <c r="D68">
-        <v>-0.02959450978685986</v>
+        <v>-0.2710398306363333</v>
       </c>
       <c r="E68">
-        <v>0.05602418939292569</v>
+        <v>-0.08605349741918639</v>
       </c>
       <c r="F68">
-        <v>0.007719489566118213</v>
+        <v>0.04973486422972887</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04246797840336069</v>
+        <v>-0.04081192603848418</v>
       </c>
       <c r="C69">
-        <v>0.01520013853421692</v>
+        <v>-0.001365890070447487</v>
       </c>
       <c r="D69">
-        <v>0.002930358042099791</v>
+        <v>0.008907834108628117</v>
       </c>
       <c r="E69">
-        <v>0.007827916119351018</v>
+        <v>0.02577319142851769</v>
       </c>
       <c r="F69">
-        <v>0.03548421053549766</v>
+        <v>-0.01659543890949302</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05083622764903679</v>
+        <v>-0.06459727461903925</v>
       </c>
       <c r="C70">
-        <v>0.05968480308073461</v>
+        <v>0.02689909279564056</v>
       </c>
       <c r="D70">
-        <v>-0.02760221139588384</v>
+        <v>0.02246887315136307</v>
       </c>
       <c r="E70">
-        <v>0.0523052089904946</v>
+        <v>-0.0449487529651157</v>
       </c>
       <c r="F70">
-        <v>0.01079809065886582</v>
+        <v>-0.340109074932838</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1497649579094976</v>
+        <v>-0.1305803087205356</v>
       </c>
       <c r="C71">
-        <v>-0.2743943223928151</v>
+        <v>-0.02557479589705806</v>
       </c>
       <c r="D71">
-        <v>-0.02422821197399124</v>
+        <v>-0.2873094704288047</v>
       </c>
       <c r="E71">
-        <v>0.06194944917397681</v>
+        <v>-0.09351248638105469</v>
       </c>
       <c r="F71">
-        <v>0.02102366907637335</v>
+        <v>0.0511438459018875</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1261556921832759</v>
+        <v>-0.1377430003511772</v>
       </c>
       <c r="C72">
-        <v>0.02219376199777227</v>
+        <v>-0.02373050246101388</v>
       </c>
       <c r="D72">
-        <v>-0.0004234016735915772</v>
+        <v>0.006664280344030483</v>
       </c>
       <c r="E72">
-        <v>0.03402031556127975</v>
+        <v>0.04223186406155034</v>
       </c>
       <c r="F72">
-        <v>0.0528489464031187</v>
+        <v>0.02385319824341075</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2238037601260527</v>
+        <v>-0.208784669165224</v>
       </c>
       <c r="C73">
-        <v>0.1032216765592634</v>
+        <v>-0.01125438366192667</v>
       </c>
       <c r="D73">
-        <v>-0.1193254859294749</v>
+        <v>0.02062906772858616</v>
       </c>
       <c r="E73">
-        <v>-0.51993353489567</v>
+        <v>0.06991751531236097</v>
       </c>
       <c r="F73">
-        <v>0.1478029233030789</v>
+        <v>0.0246950984823533</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09233838644468724</v>
+        <v>-0.09419700450315624</v>
       </c>
       <c r="C74">
-        <v>0.08701239387033123</v>
+        <v>-0.01191800264375583</v>
       </c>
       <c r="D74">
-        <v>0.001036910258586919</v>
+        <v>0.02653504928357114</v>
       </c>
       <c r="E74">
-        <v>-0.04408314744422562</v>
+        <v>0.05021376940277592</v>
       </c>
       <c r="F74">
-        <v>0.1005844926812107</v>
+        <v>0.04042089399921013</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09302413628471022</v>
+        <v>-0.1305833064066541</v>
       </c>
       <c r="C75">
-        <v>0.06767945468878277</v>
+        <v>-0.0262262388301069</v>
       </c>
       <c r="D75">
-        <v>-4.192086792603643e-05</v>
+        <v>0.03549386246050687</v>
       </c>
       <c r="E75">
-        <v>-0.00145297734320049</v>
+        <v>0.06019148829369669</v>
       </c>
       <c r="F75">
-        <v>0.01001831196236179</v>
+        <v>0.007828987867281317</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06507916671150851</v>
+        <v>-0.007923459309330784</v>
       </c>
       <c r="C76">
-        <v>0.06947890358472758</v>
+        <v>-0.001759525185353536</v>
       </c>
       <c r="D76">
-        <v>0.007683578650111853</v>
+        <v>0.003396675056566737</v>
       </c>
       <c r="E76">
-        <v>-0.05227496457304677</v>
+        <v>0.008306382390969659</v>
       </c>
       <c r="F76">
-        <v>0.01403299285925654</v>
+        <v>0.003632077837340891</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06874061139039792</v>
+        <v>-0.08107242013989353</v>
       </c>
       <c r="C77">
-        <v>0.01738266794741572</v>
+        <v>-0.01167743705720855</v>
       </c>
       <c r="D77">
-        <v>-0.03693895248872136</v>
+        <v>0.1021641880260877</v>
       </c>
       <c r="E77">
-        <v>0.1766267520650892</v>
+        <v>0.03019182757537832</v>
       </c>
       <c r="F77">
-        <v>-0.05758664862368783</v>
+        <v>0.03464822425568528</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1760101381904451</v>
+        <v>-0.1094899576118461</v>
       </c>
       <c r="C78">
-        <v>0.1728794199142667</v>
+        <v>-0.04374306522937696</v>
       </c>
       <c r="D78">
-        <v>0.1642447724982857</v>
+        <v>0.1198723737222021</v>
       </c>
       <c r="E78">
-        <v>0.03178562875808168</v>
+        <v>0.09240793194538144</v>
       </c>
       <c r="F78">
-        <v>-0.6475722755495087</v>
+        <v>0.07474063505290586</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.128912117405068</v>
+        <v>-0.1626069827165502</v>
       </c>
       <c r="C79">
-        <v>0.08423220945672986</v>
+        <v>-0.0200453988710482</v>
       </c>
       <c r="D79">
-        <v>0.01369866334499198</v>
+        <v>0.02084880162029481</v>
       </c>
       <c r="E79">
-        <v>-0.0108419035479803</v>
+        <v>0.04938617279377532</v>
       </c>
       <c r="F79">
-        <v>0.03848326473511657</v>
+        <v>0.004786844681232909</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0718759088617751</v>
+        <v>-0.0803597804142126</v>
       </c>
       <c r="C80">
-        <v>0.05297191617155038</v>
+        <v>0.0008299726163744187</v>
       </c>
       <c r="D80">
-        <v>-0.0818507202397596</v>
+        <v>0.05770036489655465</v>
       </c>
       <c r="E80">
-        <v>0.06055278909558705</v>
+        <v>0.0300632858786118</v>
       </c>
       <c r="F80">
-        <v>0.04922259919764106</v>
+        <v>-0.01157073779492827</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1268124755859789</v>
+        <v>-0.122613660267585</v>
       </c>
       <c r="C81">
-        <v>0.06272855901060616</v>
+        <v>-0.03003928212693336</v>
       </c>
       <c r="D81">
-        <v>0.01000167108054985</v>
+        <v>0.02199060447430434</v>
       </c>
       <c r="E81">
-        <v>0.07056713516262937</v>
+        <v>0.05951835249998445</v>
       </c>
       <c r="F81">
-        <v>0.03692524844332064</v>
+        <v>-0.003029970689868303</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1183306828684837</v>
+        <v>-0.1621200868645715</v>
       </c>
       <c r="C82">
-        <v>0.06386361617012343</v>
+        <v>-0.02042691880295816</v>
       </c>
       <c r="D82">
-        <v>-0.004997053251050223</v>
+        <v>0.01890249830869567</v>
       </c>
       <c r="E82">
-        <v>-0.008768222861573804</v>
+        <v>0.03581271420767344</v>
       </c>
       <c r="F82">
-        <v>0.09838402407339258</v>
+        <v>0.05307946677855591</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07936105650741597</v>
+        <v>-0.06592367853572825</v>
       </c>
       <c r="C83">
-        <v>0.08746128961412951</v>
+        <v>-0.00415923798485506</v>
       </c>
       <c r="D83">
-        <v>-0.01953927175038172</v>
+        <v>0.04704151468687073</v>
       </c>
       <c r="E83">
-        <v>0.03636168009132209</v>
+        <v>0.004211483014430102</v>
       </c>
       <c r="F83">
-        <v>0.09527096211795726</v>
+        <v>-0.0313727075761653</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04783809367966384</v>
+        <v>-0.06060163302496935</v>
       </c>
       <c r="C84">
-        <v>-0.06645835444827407</v>
+        <v>-0.01169842274093838</v>
       </c>
       <c r="D84">
-        <v>-0.04661443828764805</v>
+        <v>0.06066505501576568</v>
       </c>
       <c r="E84">
-        <v>0.009797926317446493</v>
+        <v>-0.003963833538110099</v>
       </c>
       <c r="F84">
-        <v>-0.221161615562567</v>
+        <v>0.01611588263386927</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1188579096935597</v>
+        <v>-0.1382033458572214</v>
       </c>
       <c r="C85">
-        <v>0.05429678219365559</v>
+        <v>-0.02555936798092855</v>
       </c>
       <c r="D85">
-        <v>0.002442928999803336</v>
+        <v>0.01698112231474208</v>
       </c>
       <c r="E85">
-        <v>-0.01635739119444488</v>
+        <v>0.04042427258672365</v>
       </c>
       <c r="F85">
-        <v>0.05378627010126089</v>
+        <v>0.03937071352561736</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08857627604301367</v>
+        <v>-0.09972043216786981</v>
       </c>
       <c r="C86">
-        <v>0.006111289677806841</v>
+        <v>0.006990955334479202</v>
       </c>
       <c r="D86">
-        <v>0.02858738794752405</v>
+        <v>0.01546057074887143</v>
       </c>
       <c r="E86">
-        <v>-0.1955593131842726</v>
+        <v>0.1311148407271398</v>
       </c>
       <c r="F86">
-        <v>-0.4976266933458264</v>
+        <v>-0.832130756509086</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1219485254708036</v>
+        <v>-0.1004704987740695</v>
       </c>
       <c r="C87">
-        <v>0.07254932888209129</v>
+        <v>-0.02593051588872923</v>
       </c>
       <c r="D87">
-        <v>0.01058157021377707</v>
+        <v>0.07210181311191391</v>
       </c>
       <c r="E87">
-        <v>0.0712939352155533</v>
+        <v>-0.053034737624467</v>
       </c>
       <c r="F87">
-        <v>-0.008097259941577516</v>
+        <v>0.09383497498313637</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05723972268361881</v>
+        <v>-0.06178073905017125</v>
       </c>
       <c r="C88">
-        <v>0.06487171968573094</v>
+        <v>-0.003514990243854238</v>
       </c>
       <c r="D88">
-        <v>-0.03245264600263024</v>
+        <v>0.05531764773943949</v>
       </c>
       <c r="E88">
-        <v>0.01220470414909685</v>
+        <v>0.02598903260920256</v>
       </c>
       <c r="F88">
-        <v>0.02639412294667466</v>
+        <v>0.006086321782080351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.232626429913615</v>
+        <v>-0.1324939340243755</v>
       </c>
       <c r="C89">
-        <v>-0.3704186385691438</v>
+        <v>-0.004605751915279783</v>
       </c>
       <c r="D89">
-        <v>0.03647868950330173</v>
+        <v>-0.2714283198698147</v>
       </c>
       <c r="E89">
-        <v>-0.006596421332410079</v>
+        <v>-0.09216500293938329</v>
       </c>
       <c r="F89">
-        <v>-0.03984974519999149</v>
+        <v>0.03142263670145085</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1556164993804112</v>
+        <v>-0.1425103908099081</v>
       </c>
       <c r="C90">
-        <v>-0.2598661952528985</v>
+        <v>-0.02101914907173953</v>
       </c>
       <c r="D90">
-        <v>-0.0208487236223934</v>
+        <v>-0.2722619274331542</v>
       </c>
       <c r="E90">
-        <v>0.01410756240081142</v>
+        <v>-0.1045666659261664</v>
       </c>
       <c r="F90">
-        <v>0.0197365221070317</v>
+        <v>0.03647549030372101</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07159727304614871</v>
+        <v>-0.1168378390047951</v>
       </c>
       <c r="C91">
-        <v>0.0709561770063861</v>
+        <v>-0.01615105786441033</v>
       </c>
       <c r="D91">
-        <v>0.0005383105492202496</v>
+        <v>-0.002225501035667369</v>
       </c>
       <c r="E91">
-        <v>-0.007494846386544285</v>
+        <v>0.05895937547555761</v>
       </c>
       <c r="F91">
-        <v>-0.005290797011304017</v>
+        <v>-0.03066908304369714</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1711946679483113</v>
+        <v>-0.1451332711645675</v>
       </c>
       <c r="C92">
-        <v>-0.2920520960968305</v>
+        <v>-0.01249165337846232</v>
       </c>
       <c r="D92">
-        <v>0.01745506312506051</v>
+        <v>-0.3049592898136818</v>
       </c>
       <c r="E92">
-        <v>0.06585372984818728</v>
+        <v>-0.1010842465679897</v>
       </c>
       <c r="F92">
-        <v>-0.02730902288601464</v>
+        <v>0.02778759489959403</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1741703670180713</v>
+        <v>-0.1464236447297053</v>
       </c>
       <c r="C93">
-        <v>-0.2994116307689261</v>
+        <v>-0.01769919942282154</v>
       </c>
       <c r="D93">
-        <v>-0.04982331350448864</v>
+        <v>-0.2767845943602406</v>
       </c>
       <c r="E93">
-        <v>0.03313345358747357</v>
+        <v>-0.07155834357751976</v>
       </c>
       <c r="F93">
-        <v>-0.005019148951260721</v>
+        <v>0.02718983797608308</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1170409348042024</v>
+        <v>-0.1339255446591704</v>
       </c>
       <c r="C94">
-        <v>0.08588637939611111</v>
+        <v>-0.02369087997693799</v>
       </c>
       <c r="D94">
-        <v>0.01602300679658946</v>
+        <v>0.04864349384701817</v>
       </c>
       <c r="E94">
-        <v>-0.02939065962374729</v>
+        <v>0.06171091464887479</v>
       </c>
       <c r="F94">
-        <v>0.0390946393283898</v>
+        <v>0.02639303725235371</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1360364343172204</v>
+        <v>-0.1270256426430101</v>
       </c>
       <c r="C95">
-        <v>0.0676387417700134</v>
+        <v>-0.006263505335685322</v>
       </c>
       <c r="D95">
-        <v>0.008623932759525558</v>
+        <v>0.08977763399711138</v>
       </c>
       <c r="E95">
-        <v>0.06048000702617783</v>
+        <v>0.04090986487005827</v>
       </c>
       <c r="F95">
-        <v>-0.1251832410629948</v>
+        <v>-0.0101935480371799</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.000265680117304427</v>
+        <v>-0.09448480617964844</v>
       </c>
       <c r="C96">
-        <v>0.001053822120565432</v>
+        <v>0.9894631518349776</v>
       </c>
       <c r="D96">
-        <v>-9.889945513457849e-05</v>
+        <v>-0.0151564178933598</v>
       </c>
       <c r="E96">
-        <v>0.001490309585638155</v>
+        <v>0.05989897744901501</v>
       </c>
       <c r="F96">
-        <v>-0.0007296056688262692</v>
+        <v>0.04994419872342489</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1217416089408151</v>
+        <v>-0.1878236865286076</v>
       </c>
       <c r="C97">
-        <v>-0.02941074005580331</v>
+        <v>0.01265006683108885</v>
       </c>
       <c r="D97">
-        <v>0.02106461253193983</v>
+        <v>-0.01208010352821652</v>
       </c>
       <c r="E97">
-        <v>0.2254459659636251</v>
+        <v>0.01612867496602855</v>
       </c>
       <c r="F97">
-        <v>0.2115244420488143</v>
+        <v>-0.1709885657727517</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.254088332349692</v>
+        <v>-0.2066528687073336</v>
       </c>
       <c r="C98">
-        <v>0.09316365327186668</v>
+        <v>-0.006861476642929121</v>
       </c>
       <c r="D98">
-        <v>0.08061699199850506</v>
+        <v>0.01351249728310842</v>
       </c>
       <c r="E98">
-        <v>-0.2679950882788028</v>
+        <v>-0.08925013239058439</v>
       </c>
       <c r="F98">
-        <v>0.04794319420530911</v>
+        <v>-0.1369874367587117</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06949394599886548</v>
+        <v>-0.05767117764282812</v>
       </c>
       <c r="C99">
-        <v>0.06028794657325068</v>
+        <v>0.003064927785066661</v>
       </c>
       <c r="D99">
-        <v>0.01111977877620345</v>
+        <v>0.03288532252795585</v>
       </c>
       <c r="E99">
-        <v>-0.03279907773215786</v>
+        <v>0.02676910690821632</v>
       </c>
       <c r="F99">
-        <v>0.0009836985812140015</v>
+        <v>0.003962825070775588</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1236829344189193</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04764832081178619</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3251486290723997</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9050726241352345</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05819093142782516</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03806885727576197</v>
+        <v>-0.0271105828577453</v>
       </c>
       <c r="C101">
-        <v>0.0316952292706066</v>
+        <v>-0.009343631807665552</v>
       </c>
       <c r="D101">
-        <v>-0.01676083564122095</v>
+        <v>0.02787526566535099</v>
       </c>
       <c r="E101">
-        <v>0.05931870675275158</v>
+        <v>0.007511055259246411</v>
       </c>
       <c r="F101">
-        <v>-0.01852260567435663</v>
+        <v>-0.008854869247596087</v>
       </c>
     </row>
     <row r="102" spans="1:6">
